--- a/src/data/employees/employee_data.xlsx
+++ b/src/data/employees/employee_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29301"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TemuulenBatsukh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{747136BF-B074-4DF2-90B5-424E763D50C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30BF170F-447E-43B3-A62E-0BEF73538F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="310">
   <si>
     <t>Name</t>
   </si>
@@ -960,6 +960,12 @@
   </si>
   <si>
     <t>michael.white@example.com</t>
+  </si>
+  <si>
+    <t>Нямбаяр Энхбаяр</t>
+  </si>
+  <si>
+    <t>nyambayar.e@techpack.mn</t>
   </si>
 </sst>
 </file>
@@ -967,11 +973,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +999,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1027,23 +1047,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1346,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1405,7 +1430,7 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1428,7 +1453,7 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3686,7 +3711,35 @@
         <v>307</v>
       </c>
     </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>308</v>
+      </c>
+      <c r="B102" s="6">
+        <v>2365166</v>
+      </c>
+      <c r="C102" s="7">
+        <v>44176</v>
+      </c>
+      <c r="D102" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F102" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{23CE6E6D-198B-4797-87AC-9C09A3E6626E}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{221833F7-2E1A-4C10-A11C-9821DF47F76D}"/>
+    <hyperlink ref="G102" r:id="rId3" xr:uid="{66966EC4-F30E-4FB7-B2F6-1524BF84443D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/data/employees/employee_data.xlsx
+++ b/src/data/employees/employee_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BilguunMunkhbayar\Desktop\Hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18004352-F9BA-4083-8EC4-809A0B48106D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8CAAF97-B90A-4839-A4C1-5F071408E880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,7 +158,7 @@
     <t>Risk of resignation / Attrition risk (2025) (9 box)</t>
   </si>
   <si>
-    <t>Required Attendance first half of September, 2025?</t>
+    <t>Required Attendance first half of September,2025?</t>
   </si>
   <si>
     <t>Actual Attendance first half of September, 2025?</t>
@@ -1168,10 +1168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1278,14 +1278,14 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1296,11 +1296,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1615,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R90" workbookViewId="0">
-      <selection activeCell="X103" sqref="X103"/>
+    <sheetView tabSelected="1" topLeftCell="I92" workbookViewId="0">
+      <selection activeCell="N106" sqref="N106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1650,7 +1650,7 @@
     <col min="43" max="43" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="86.45">
+    <row r="1" spans="1:42" ht="91.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>366</v>
       </c>
       <c r="N102" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="O102" t="s">
         <v>60</v>
